--- a/output/cohen_kappa_pair.xlsx
+++ b/output/cohen_kappa_pair.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Juiz 1</t>
   </si>
@@ -36,24 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">valor-p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
   </si>
 </sst>
 </file>
@@ -407,163 +386,142 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
+        <v>0.859872611464968</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.674707236472511</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0000000211072066491624</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.929712460063898</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.795118757229927</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00000000182018944361317</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.929712460063898</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.795118757229927</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00000000182018944361317</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.859872611464968</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.674707236472511</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.929712460063898</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.795118757229927</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.95</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.0000000211072066491624</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="G5" t="n">
+        <v>0.00000000182018944361317</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.929712460063898</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.795118757229927</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00000000182018944361317</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.929712460063898</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.795118757229927</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.95</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.00000000182018944361317</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.929712460063898</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.795118757229927</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.00000000182018944361317</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.929712460063898</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.795118757229927</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.00000000182018944361317</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.929712460063898</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.795118757229927</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.00000000182018944361317</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
       <c r="G7" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H7" t="n">
         <v>0.000000000191721083453444</v>
       </c>
     </row>
